--- a/brand.xlsx
+++ b/brand.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>파일명</t>
   </si>
@@ -423,6 +423,79 @@
         <charset val="129"/>
       </rPr>
       <t>搭都好看。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_whitesketchbook.mp4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> (화이트 스케치북) 是韓國製的中價位女童服飾品牌，尺碼涵蓋 3–21 號。以精緻童趣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核心，將圓點針織、格紋層次裙、蕾絲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>罩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>衫與輕盈紗裙等元素巧妙融合，線條俐落卻不失柔美。舒適親膚、好活動且具造型感，無論日常外出或小型聚會，都能展現孩子自然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>甜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>美的氣質。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -794,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,6 +949,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/brand.xlsx
+++ b/brand.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="upload_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>파일명</t>
   </si>
@@ -497,6 +498,22 @@
       </rPr>
       <t>美的氣質。</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dgsfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdgfhsdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngsnhgfh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리나라 만세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -867,10 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,4 +985,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>